--- a/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,0</t>
+          <t>-1,75; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,24%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>358,84%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 2,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,0</t>
+          <t>0,63; 4,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; 1268,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,36; 441,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,06; 2464,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>228,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>65,66%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,0</t>
+          <t>-0,44; 2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>1,91; 10,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>-0,89; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,72; 321,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,17; 1041,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,17; 450,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>-40,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>181,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,01</t>
+          <t>-5,72; -0,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,14</t>
+          <t>5,16; 12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,1; 7,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,45; -4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,39; 371,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 237,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>347,49%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>207,07%</t>
+          <t>114,25%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,44</t>
+          <t>-5,63; 1,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,91</t>
+          <t>-7,26; 12,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,59</t>
+          <t>2,77; 9,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,94; —</t>
+          <t>-43,51; 24,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 464,07</t>
+          <t>-60,67; 140,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 1146,23</t>
+          <t>38,08; 234,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>108,81%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,57</t>
+          <t>-7,13; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,9</t>
+          <t>8,28; 21,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,81</t>
+          <t>7,94; 17,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 404,46</t>
+          <t>-26,3; 12,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,84; 251,8</t>
+          <t>40,52; 161,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 181,06</t>
+          <t>59,73; 184,93</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>102,45%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>145,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,87%</t>
+          <t>129,06%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,6</t>
+          <t>-1,25; 1,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,9</t>
+          <t>2,84; 7,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -1,11</t>
+          <t>2,89; 5,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 289,11</t>
+          <t>-16,57; 20,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,01; 186,79</t>
+          <t>77,03; 275,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,85; -18,68</t>
+          <t>79,58; 191,18</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>123,08%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>48,51%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-14,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 10,66</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 11,12</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 1,72</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>47,19; 249,76</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-18,64; 108,07</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-37,8; 23,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>12,55</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>15,71</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>99,79%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>83,98%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-5,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 17,11</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>10,74; 20,72</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 3,21</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>51,08; 168,71</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>49,03; 132,37</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-22,02; 16,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>110,93%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>103,18%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 5,87</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,97; 6,46</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 0,94</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>73,77; 158,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>73,21; 141,68</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; 18,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,9</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>224,93%</t>
+          <t>137,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,81</t>
+          <t>-0,24; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,22</t>
+          <t>-1,82; 2,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 1268,69</t>
+          <t>-43,81; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 441,92</t>
+          <t>-65,84; 479,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,41</t>
+          <t>-0,84; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 10,08</t>
+          <t>2,19; 10,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 321,41</t>
+          <t>-44,25; 196,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,17; 1041,14</t>
+          <t>40,89; 1082,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-40,22%</t>
+          <t>-33,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,32</t>
+          <t>-4,23; 0,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 12,25</t>
+          <t>5,33; 12,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,45; -4,59</t>
+          <t>-55,64; 11,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,39; 371,43</t>
+          <t>76,97; 361,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>-23,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,95</t>
+          <t>-6,49; 0,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 12,09</t>
+          <t>-8,0; 12,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 24,17</t>
+          <t>-46,13; 9,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,67; 140,98</t>
+          <t>-70,76; 145,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,54</t>
+          <t>-6,14; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 21,06</t>
+          <t>7,89; 21,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 12,03</t>
+          <t>-25,59; 18,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,52; 161,72</t>
+          <t>39,07; 173,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,23</t>
+          <t>-0,87; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,61</t>
+          <t>2,75; 7,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 20,21</t>
+          <t>-13,73; 23,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,03; 275,47</t>
+          <t>71,7; 247,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 0,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,19 +684,19 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>128,24%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>128,24%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,31; 2,86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 2,07</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 2,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>358,84%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>137,29%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>31,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>358,84%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,2; 2,68</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 4,67</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,24; 1,87</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 2,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 4,67</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-56,7; 625,22</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-26,06; 2464,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-43,81; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-65,84; 479,67</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-26,06; 2464,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,34</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>83,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>65,66%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>25,36%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>228,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65,66%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,02; 5,03</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 2,67</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,84; 1,48</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 10,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 2,67</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-5,96; 247,86</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-49,17; 450,57</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-44,25; 196,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>40,89; 1082,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-49,17; 450,57</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-2,1</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>205,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-33,78%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>181,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>83,26%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>6,21; 12,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 7,47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-4,23; 0,24</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 12,36</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 7,47</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>89,79; 403,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 237,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-55,64; 11,61</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>76,97; 361,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 237,76</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>11,6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-2,77</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>132,79%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>114,25%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-23,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>114,25%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6,51; 16,32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 9,18</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-6,49; 0,78</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 12,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 9,18</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>56,43; 242,16</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38,08; 234,14</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-46,13; 9,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-70,76; 145,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>38,08; 234,14</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>14,28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,48</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-1,33</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>15,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,48</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>83,44%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>108,81%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-6,12%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>92,22%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>108,81%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,27; 20,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 17,1</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-6,14; 3,37</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,89; 21,22</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 17,1</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>34,46; 158,56</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>59,73; 184,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-25,59; 18,34</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>39,07; 173,1</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>59,73; 184,93</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>149,82%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>129,06%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>2,73%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>145,8%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>129,06%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,81; 7,36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 5,03</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,87; 1,2</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 7,31</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 5,03</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>103,62; 214,67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>79,58; 191,18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-13,73; 23,17</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>71,7; 247,83</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>79,58; 191,18</t>
         </is>
       </c>
     </row>
